--- a/results/pvalue_SIDER_rare_enzyme_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUPRperdrug.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>-0.382</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.596</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-3.159</t>
+          <t>-3.646</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.562</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.827</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.148</t>
+          <t>5.009</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.513</t>
+          <t>5.816</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.561</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.617</t>
+          <t>11.518</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
